--- a/biology/Zoologie/Alburnus_selcuklui/Alburnus_selcuklui.xlsx
+++ b/biology/Zoologie/Alburnus_selcuklui/Alburnus_selcuklui.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alburnus selcuklui est un poisson d'eau douce de la famille des Cyprinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alburnus selcuklui est endémique de Turquie où cette espèce se rencontre dans la rivière Botan, affluent du Tigre dans l'est de l'Anatolie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alburnus selcuklui est endémique de Turquie où cette espèce se rencontre dans la rivière Botan, affluent du Tigre dans l'est de l'Anatolie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Alburnus selcuklui est de 116 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Alburnus selcuklui est de 116 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, selcuklui, lui a été donné en l'honneur des Seldjoukides[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, selcuklui, lui a été donné en l'honneur des Seldjoukides.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Elp, Şen &amp; Özuluğ, 2015 : Alburnus selcuklui, a new species of cyprinid fish from east Anatolia, Turkey (Teleostei: Cyprinidae). Turkish Journal of Fisheries and Aquatic Sciences, vol. 15, p. 181-186[4] (texte intégral).</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Elp, Şen &amp; Özuluğ, 2015 : Alburnus selcuklui, a new species of cyprinid fish from east Anatolia, Turkey (Teleostei: Cyprinidae). Turkish Journal of Fisheries and Aquatic Sciences, vol. 15, p. 181-186 (texte intégral).</t>
         </is>
       </c>
     </row>
